--- a/owlcms/src/main/resources/agegroups/RU-AgeGroups_ru.xlsx
+++ b/owlcms/src/main/resources/agegroups/RU-AgeGroups_ru.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3311A41-6810-4CBD-A001-ABCF05520416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AgeGroups" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="AgeGroups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,188 +34,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">championshipName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASTERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>championshipName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>MASTERS</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F60</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">F65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOUTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFAULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M85</t>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>YOUTH</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M65</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -209,7 +200,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -217,15 +208,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -236,7 +226,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -263,7 +252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FF8EA9DB"/>
       </patternFill>
     </fill>
@@ -299,7 +288,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -307,117 +296,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -476,62 +406,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -561,7 +507,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -585,7 +531,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -645,32 +591,31 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="8" style="1" width="14.42"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="8" max="23" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,7 +656,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -724,44 +669,44 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="n">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
         <v>12</v>
       </c>
       <c r="G2" s="9" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="n">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <v>29</v>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="10">
         <v>31</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="10">
         <v>33</v>
       </c>
-      <c r="K2" s="10" t="n">
+      <c r="K2" s="10">
         <v>35</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="10">
         <v>37</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="11">
         <v>40</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="11">
         <v>45</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="11">
         <v>49</v>
       </c>
-      <c r="P2" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="12" t="n">
+      <c r="P2" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="12">
         <v>999</v>
       </c>
       <c r="R2" s="11"/>
@@ -771,7 +716,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -784,14 +729,14 @@
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="8">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="8">
         <v>15</v>
       </c>
       <c r="G3" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="11"/>
@@ -799,39 +744,39 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="11">
         <v>40</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="11">
         <v>45</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="11">
         <v>49</v>
       </c>
-      <c r="P3" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="11" t="n">
+      <c r="P3" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="11">
         <v>59</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="11">
         <v>64</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="11">
         <v>71</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="11">
         <v>76</v>
       </c>
-      <c r="U3" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V3" s="11" t="n">
+      <c r="U3" s="11">
+        <v>81</v>
+      </c>
+      <c r="V3" s="11">
         <v>999</v>
       </c>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -844,14 +789,14 @@
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>17</v>
       </c>
       <c r="G4" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
@@ -859,39 +804,39 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="11">
         <v>40</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="11">
         <v>45</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="11">
         <v>49</v>
       </c>
-      <c r="P4" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="11" t="n">
+      <c r="P4" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="11">
         <v>59</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="11">
         <v>64</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="11">
         <v>71</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="11">
         <v>76</v>
       </c>
-      <c r="U4" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V4" s="11" t="n">
+      <c r="U4" s="11">
+        <v>81</v>
+      </c>
+      <c r="V4" s="11">
         <v>999</v>
       </c>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -904,14 +849,14 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="8">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="8">
         <v>18</v>
       </c>
       <c r="G5" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
@@ -920,38 +865,38 @@
       <c r="K5" s="11"/>
       <c r="L5" s="13"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="11">
         <v>45</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="11">
         <v>49</v>
       </c>
-      <c r="P5" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="11" t="n">
+      <c r="P5" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="11">
         <v>59</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="11">
         <v>64</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="11">
         <v>71</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="11">
         <v>76</v>
       </c>
-      <c r="U5" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V5" s="11" t="n">
+      <c r="U5" s="11">
+        <v>81</v>
+      </c>
+      <c r="V5" s="11">
         <v>87</v>
       </c>
-      <c r="W5" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W5" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -964,14 +909,14 @@
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>20</v>
       </c>
       <c r="G6" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
@@ -980,38 +925,38 @@
       <c r="K6" s="11"/>
       <c r="L6" s="10"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="11">
         <v>45</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="11">
         <v>49</v>
       </c>
-      <c r="P6" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="11" t="n">
+      <c r="P6" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="11">
         <v>59</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="11">
         <v>64</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="11">
         <v>71</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="11">
         <v>76</v>
       </c>
-      <c r="U6" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V6" s="11" t="n">
+      <c r="U6" s="11">
+        <v>81</v>
+      </c>
+      <c r="V6" s="11">
         <v>87</v>
       </c>
-      <c r="W6" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W6" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1024,14 +969,14 @@
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="8">
         <v>21</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>999</v>
       </c>
       <c r="G7" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
@@ -1039,41 +984,41 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="11" t="n">
+      <c r="M7" s="11">
         <v>40</v>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="11">
         <v>45</v>
       </c>
-      <c r="O7" s="11" t="n">
+      <c r="O7" s="11">
         <v>49</v>
       </c>
-      <c r="P7" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="11" t="n">
+      <c r="P7" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="11">
         <v>59</v>
       </c>
-      <c r="R7" s="11" t="n">
+      <c r="R7" s="11">
         <v>64</v>
       </c>
-      <c r="S7" s="11" t="n">
+      <c r="S7" s="11">
         <v>71</v>
       </c>
-      <c r="T7" s="11" t="n">
+      <c r="T7" s="11">
         <v>76</v>
       </c>
-      <c r="U7" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V7" s="11" t="n">
+      <c r="U7" s="11">
+        <v>81</v>
+      </c>
+      <c r="V7" s="11">
         <v>87</v>
       </c>
-      <c r="W7" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W7" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1086,14 +1031,14 @@
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8">
         <v>34</v>
       </c>
       <c r="G8" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
@@ -1101,41 +1046,41 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="11" t="n">
+      <c r="M8" s="11">
         <v>40</v>
       </c>
-      <c r="N8" s="11" t="n">
+      <c r="N8" s="11">
         <v>45</v>
       </c>
-      <c r="O8" s="11" t="n">
+      <c r="O8" s="11">
         <v>49</v>
       </c>
-      <c r="P8" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="11" t="n">
+      <c r="P8" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="11">
         <v>59</v>
       </c>
-      <c r="R8" s="11" t="n">
+      <c r="R8" s="11">
         <v>64</v>
       </c>
-      <c r="S8" s="11" t="n">
+      <c r="S8" s="11">
         <v>71</v>
       </c>
-      <c r="T8" s="11" t="n">
+      <c r="T8" s="11">
         <v>76</v>
       </c>
-      <c r="U8" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V8" s="11" t="n">
+      <c r="U8" s="11">
+        <v>81</v>
+      </c>
+      <c r="V8" s="11">
         <v>87</v>
       </c>
-      <c r="W8" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W8" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1148,14 +1093,14 @@
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="8">
         <v>35</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="8">
         <v>39</v>
       </c>
       <c r="G9" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
@@ -1163,41 +1108,41 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="11" t="n">
+      <c r="M9" s="11">
         <v>40</v>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="11">
         <v>45</v>
       </c>
-      <c r="O9" s="11" t="n">
+      <c r="O9" s="11">
         <v>49</v>
       </c>
-      <c r="P9" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="11" t="n">
+      <c r="P9" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="11">
         <v>59</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="11">
         <v>64</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="11">
         <v>71</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="11">
         <v>76</v>
       </c>
-      <c r="U9" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V9" s="11" t="n">
+      <c r="U9" s="11">
+        <v>81</v>
+      </c>
+      <c r="V9" s="11">
         <v>87</v>
       </c>
-      <c r="W9" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W9" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1210,14 +1155,14 @@
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="8">
         <v>40</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>44</v>
       </c>
       <c r="G10" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H10" s="11"/>
@@ -1225,41 +1170,41 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="11" t="n">
+      <c r="M10" s="11">
         <v>40</v>
       </c>
-      <c r="N10" s="11" t="n">
+      <c r="N10" s="11">
         <v>45</v>
       </c>
-      <c r="O10" s="11" t="n">
+      <c r="O10" s="11">
         <v>49</v>
       </c>
-      <c r="P10" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="11" t="n">
+      <c r="P10" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="11">
         <v>59</v>
       </c>
-      <c r="R10" s="11" t="n">
+      <c r="R10" s="11">
         <v>64</v>
       </c>
-      <c r="S10" s="11" t="n">
+      <c r="S10" s="11">
         <v>71</v>
       </c>
-      <c r="T10" s="11" t="n">
+      <c r="T10" s="11">
         <v>76</v>
       </c>
-      <c r="U10" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V10" s="11" t="n">
+      <c r="U10" s="11">
+        <v>81</v>
+      </c>
+      <c r="V10" s="11">
         <v>87</v>
       </c>
-      <c r="W10" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W10" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1272,14 +1217,14 @@
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="8">
         <v>45</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>49</v>
       </c>
       <c r="G11" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H11" s="11"/>
@@ -1287,41 +1232,41 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="11">
         <v>40</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="11">
         <v>45</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="11">
         <v>49</v>
       </c>
-      <c r="P11" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="11" t="n">
+      <c r="P11" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="11">
         <v>59</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="11">
         <v>64</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="11">
         <v>71</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="11">
         <v>76</v>
       </c>
-      <c r="U11" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V11" s="11" t="n">
+      <c r="U11" s="11">
+        <v>81</v>
+      </c>
+      <c r="V11" s="11">
         <v>87</v>
       </c>
-      <c r="W11" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W11" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1334,14 +1279,14 @@
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="8">
         <v>50</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>54</v>
       </c>
       <c r="G12" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
@@ -1349,41 +1294,41 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="11">
         <v>40</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="11">
         <v>45</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="11">
         <v>49</v>
       </c>
-      <c r="P12" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="11" t="n">
+      <c r="P12" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="11">
         <v>59</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="11">
         <v>64</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="11">
         <v>71</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="11">
         <v>76</v>
       </c>
-      <c r="U12" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V12" s="11" t="n">
+      <c r="U12" s="11">
+        <v>81</v>
+      </c>
+      <c r="V12" s="11">
         <v>87</v>
       </c>
-      <c r="W12" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W12" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1396,14 +1341,14 @@
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F13" s="8" t="n">
+      <c r="E13" s="8">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8">
         <v>59</v>
       </c>
       <c r="G13" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H13" s="11"/>
@@ -1411,41 +1356,41 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="11">
         <v>40</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="11">
         <v>45</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="11">
         <v>49</v>
       </c>
-      <c r="P13" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="11" t="n">
+      <c r="P13" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="11">
         <v>59</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="11">
         <v>64</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="11">
         <v>71</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="11">
         <v>76</v>
       </c>
-      <c r="U13" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V13" s="11" t="n">
+      <c r="U13" s="11">
+        <v>81</v>
+      </c>
+      <c r="V13" s="11">
         <v>87</v>
       </c>
-      <c r="W13" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W13" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1458,14 +1403,14 @@
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="8">
         <v>60</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>64</v>
       </c>
       <c r="G14" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H14" s="11"/>
@@ -1473,44 +1418,44 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="11">
         <v>40</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="11">
         <v>45</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="11">
         <v>49</v>
       </c>
-      <c r="P14" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="11" t="n">
+      <c r="P14" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="11">
         <v>59</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="11">
         <v>64</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="11">
         <v>71</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="11">
         <v>76</v>
       </c>
-      <c r="U14" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V14" s="11" t="n">
+      <c r="U14" s="11">
+        <v>81</v>
+      </c>
+      <c r="V14" s="11">
         <v>87</v>
       </c>
-      <c r="W14" s="11" t="n">
-        <v>999</v>
-      </c>
-      <c r="X14" s="0" t="s">
+      <c r="W14" s="11">
+        <v>999</v>
+      </c>
+      <c r="X14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1523,14 +1468,14 @@
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>65</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8">
         <v>69</v>
       </c>
       <c r="G15" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H15" s="11"/>
@@ -1538,41 +1483,41 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="11">
         <v>40</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="11">
         <v>45</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="11">
         <v>49</v>
       </c>
-      <c r="P15" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="11" t="n">
+      <c r="P15" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="11">
         <v>59</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="11">
         <v>64</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="11">
         <v>71</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="11">
         <v>76</v>
       </c>
-      <c r="U15" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V15" s="11" t="n">
+      <c r="U15" s="11">
+        <v>81</v>
+      </c>
+      <c r="V15" s="11">
         <v>87</v>
       </c>
-      <c r="W15" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W15" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1585,14 +1530,14 @@
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>70</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>74</v>
       </c>
       <c r="G16" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H16" s="11"/>
@@ -1600,41 +1545,41 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="11" t="n">
+      <c r="M16" s="11">
         <v>40</v>
       </c>
-      <c r="N16" s="11" t="n">
+      <c r="N16" s="11">
         <v>45</v>
       </c>
-      <c r="O16" s="11" t="n">
+      <c r="O16" s="11">
         <v>49</v>
       </c>
-      <c r="P16" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="11" t="n">
+      <c r="P16" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="11">
         <v>59</v>
       </c>
-      <c r="R16" s="11" t="n">
+      <c r="R16" s="11">
         <v>64</v>
       </c>
-      <c r="S16" s="11" t="n">
+      <c r="S16" s="11">
         <v>71</v>
       </c>
-      <c r="T16" s="11" t="n">
+      <c r="T16" s="11">
         <v>76</v>
       </c>
-      <c r="U16" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V16" s="11" t="n">
+      <c r="U16" s="11">
+        <v>81</v>
+      </c>
+      <c r="V16" s="11">
         <v>87</v>
       </c>
-      <c r="W16" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W16" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1647,14 +1592,14 @@
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="8">
         <v>75</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="8">
         <v>79</v>
       </c>
       <c r="G17" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H17" s="11"/>
@@ -1662,41 +1607,41 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="11" t="n">
+      <c r="M17" s="11">
         <v>40</v>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="11">
         <v>45</v>
       </c>
-      <c r="O17" s="11" t="n">
+      <c r="O17" s="11">
         <v>49</v>
       </c>
-      <c r="P17" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="11" t="n">
+      <c r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="11">
         <v>59</v>
       </c>
-      <c r="R17" s="11" t="n">
+      <c r="R17" s="11">
         <v>64</v>
       </c>
-      <c r="S17" s="11" t="n">
+      <c r="S17" s="11">
         <v>71</v>
       </c>
-      <c r="T17" s="11" t="n">
+      <c r="T17" s="11">
         <v>76</v>
       </c>
-      <c r="U17" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V17" s="11" t="n">
+      <c r="U17" s="11">
+        <v>81</v>
+      </c>
+      <c r="V17" s="11">
         <v>87</v>
       </c>
-      <c r="W17" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W17" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1709,14 +1654,14 @@
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>80</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>999</v>
       </c>
       <c r="G18" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H18" s="11"/>
@@ -1724,41 +1669,41 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="11" t="n">
+      <c r="M18" s="11">
         <v>40</v>
       </c>
-      <c r="N18" s="11" t="n">
+      <c r="N18" s="11">
         <v>45</v>
       </c>
-      <c r="O18" s="11" t="n">
+      <c r="O18" s="11">
         <v>49</v>
       </c>
-      <c r="P18" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q18" s="11" t="n">
+      <c r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="11">
         <v>59</v>
       </c>
-      <c r="R18" s="11" t="n">
+      <c r="R18" s="11">
         <v>64</v>
       </c>
-      <c r="S18" s="11" t="n">
+      <c r="S18" s="11">
         <v>71</v>
       </c>
-      <c r="T18" s="11" t="n">
+      <c r="T18" s="11">
         <v>76</v>
       </c>
-      <c r="U18" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V18" s="11" t="n">
+      <c r="U18" s="11">
+        <v>81</v>
+      </c>
+      <c r="V18" s="11">
         <v>87</v>
       </c>
-      <c r="W18" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W18" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1771,14 +1716,14 @@
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>85</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>999</v>
       </c>
       <c r="G19" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H19" s="11"/>
@@ -1786,41 +1731,41 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="11" t="n">
+      <c r="M19" s="11">
         <v>40</v>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="11">
         <v>45</v>
       </c>
-      <c r="O19" s="11" t="n">
+      <c r="O19" s="11">
         <v>49</v>
       </c>
-      <c r="P19" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="11" t="n">
+      <c r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="11">
         <v>59</v>
       </c>
-      <c r="R19" s="11" t="n">
+      <c r="R19" s="11">
         <v>64</v>
       </c>
-      <c r="S19" s="11" t="n">
+      <c r="S19" s="11">
         <v>71</v>
       </c>
-      <c r="T19" s="11" t="n">
+      <c r="T19" s="11">
         <v>76</v>
       </c>
-      <c r="U19" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V19" s="11" t="n">
+      <c r="U19" s="11">
+        <v>81</v>
+      </c>
+      <c r="V19" s="11">
         <v>87</v>
       </c>
-      <c r="W19" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W19" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1828,19 +1773,19 @@
         <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="8">
         <v>13</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>17</v>
       </c>
       <c r="G20" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
@@ -1848,59 +1793,59 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="11" t="n">
+      <c r="M20" s="11">
         <v>40</v>
       </c>
-      <c r="N20" s="11" t="n">
+      <c r="N20" s="11">
         <v>45</v>
       </c>
-      <c r="O20" s="11" t="n">
+      <c r="O20" s="11">
         <v>49</v>
       </c>
-      <c r="P20" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="11" t="n">
+      <c r="P20" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="11">
         <v>59</v>
       </c>
-      <c r="R20" s="11" t="n">
+      <c r="R20" s="11">
         <v>64</v>
       </c>
-      <c r="S20" s="11" t="n">
+      <c r="S20" s="11">
         <v>71</v>
       </c>
-      <c r="T20" s="11" t="n">
+      <c r="T20" s="11">
         <v>76</v>
       </c>
-      <c r="U20" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V20" s="11" t="n">
+      <c r="U20" s="11">
+        <v>81</v>
+      </c>
+      <c r="V20" s="11">
         <v>999</v>
       </c>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>15</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>20</v>
       </c>
       <c r="G21" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H21" s="11"/>
@@ -1909,38 +1854,38 @@
       <c r="K21" s="11"/>
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="11" t="n">
+      <c r="N21" s="11">
         <v>45</v>
       </c>
-      <c r="O21" s="11" t="n">
+      <c r="O21" s="11">
         <v>49</v>
       </c>
-      <c r="P21" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="11" t="n">
+      <c r="P21" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="11">
         <v>59</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="11">
         <v>64</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="11">
         <v>71</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="11">
         <v>76</v>
       </c>
-      <c r="U21" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V21" s="11" t="n">
+      <c r="U21" s="11">
+        <v>81</v>
+      </c>
+      <c r="V21" s="11">
         <v>87</v>
       </c>
-      <c r="W21" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W21" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -1948,19 +1893,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="8">
         <v>15</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="8">
         <v>999</v>
       </c>
       <c r="G22" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H22" s="11"/>
@@ -1969,110 +1914,110 @@
       <c r="K22" s="11"/>
       <c r="L22" s="10"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="11" t="n">
+      <c r="N22" s="11">
         <v>45</v>
       </c>
-      <c r="O22" s="11" t="n">
+      <c r="O22" s="11">
         <v>49</v>
       </c>
-      <c r="P22" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="11" t="n">
+      <c r="P22" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="11">
         <v>59</v>
       </c>
-      <c r="R22" s="11" t="n">
+      <c r="R22" s="11">
         <v>64</v>
       </c>
-      <c r="S22" s="11" t="n">
+      <c r="S22" s="11">
         <v>71</v>
       </c>
-      <c r="T22" s="11" t="n">
+      <c r="T22" s="11">
         <v>76</v>
       </c>
-      <c r="U22" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V22" s="11" t="n">
+      <c r="U22" s="11">
+        <v>81</v>
+      </c>
+      <c r="V22" s="11">
         <v>87</v>
       </c>
-      <c r="W22" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W22" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="n">
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
         <v>999</v>
       </c>
       <c r="G23" s="14" t="b">
-        <f aca="false">TRUE()</f>
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="10">
         <v>29</v>
       </c>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="10">
         <v>31</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="10">
         <v>33</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="10">
         <v>35</v>
       </c>
-      <c r="L23" s="10" t="n">
+      <c r="L23" s="10">
         <v>37</v>
       </c>
-      <c r="M23" s="11" t="n">
+      <c r="M23" s="11">
         <v>40</v>
       </c>
-      <c r="N23" s="11" t="n">
+      <c r="N23" s="11">
         <v>45</v>
       </c>
-      <c r="O23" s="11" t="n">
+      <c r="O23" s="11">
         <v>49</v>
       </c>
-      <c r="P23" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="11" t="n">
+      <c r="P23" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="11">
         <v>59</v>
       </c>
-      <c r="R23" s="11" t="n">
+      <c r="R23" s="11">
         <v>64</v>
       </c>
-      <c r="S23" s="11" t="n">
+      <c r="S23" s="11">
         <v>71</v>
       </c>
-      <c r="T23" s="11" t="n">
+      <c r="T23" s="11">
         <v>76</v>
       </c>
-      <c r="U23" s="11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V23" s="11" t="n">
+      <c r="U23" s="11">
+        <v>81</v>
+      </c>
+      <c r="V23" s="11">
         <v>87</v>
       </c>
-      <c r="W23" s="11" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -2083,46 +2028,46 @@
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <v>12</v>
       </c>
       <c r="G24" s="9" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="n">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
         <v>33</v>
       </c>
-      <c r="I24" s="15" t="n">
+      <c r="I24" s="15">
         <v>35</v>
       </c>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="15">
         <v>37</v>
       </c>
-      <c r="K24" s="15" t="n">
+      <c r="K24" s="15">
         <v>41</v>
       </c>
-      <c r="L24" s="16" t="n">
+      <c r="L24" s="16">
         <v>45</v>
       </c>
-      <c r="M24" s="16" t="n">
+      <c r="M24" s="16">
         <v>49</v>
       </c>
-      <c r="N24" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O24" s="16" t="n">
+      <c r="N24" s="16">
+        <v>55</v>
+      </c>
+      <c r="O24" s="16">
         <v>61</v>
       </c>
-      <c r="P24" s="16" t="n">
+      <c r="P24" s="16">
         <v>67</v>
       </c>
-      <c r="Q24" s="15" t="n">
+      <c r="Q24" s="15">
         <v>999</v>
       </c>
       <c r="R24" s="16"/>
@@ -2132,7 +2077,7 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -2143,16 +2088,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E25" s="8">
         <v>13</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="8">
         <v>15</v>
       </c>
       <c r="G25" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H25" s="16"/>
@@ -2160,39 +2105,39 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="16" t="n">
+      <c r="M25" s="16">
         <v>49</v>
       </c>
-      <c r="N25" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O25" s="16" t="n">
+      <c r="N25" s="16">
+        <v>55</v>
+      </c>
+      <c r="O25" s="16">
         <v>61</v>
       </c>
-      <c r="P25" s="16" t="n">
+      <c r="P25" s="16">
         <v>67</v>
       </c>
-      <c r="Q25" s="16" t="n">
+      <c r="Q25" s="16">
         <v>73</v>
       </c>
-      <c r="R25" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S25" s="16" t="n">
+      <c r="R25" s="16">
+        <v>81</v>
+      </c>
+      <c r="S25" s="16">
         <v>89</v>
       </c>
-      <c r="T25" s="16" t="n">
+      <c r="T25" s="16">
         <v>96</v>
       </c>
-      <c r="U25" s="16" t="n">
+      <c r="U25" s="16">
         <v>102</v>
       </c>
-      <c r="V25" s="16" t="n">
+      <c r="V25" s="16">
         <v>999</v>
       </c>
       <c r="W25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -2203,16 +2148,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8">
         <v>13</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="8">
         <v>17</v>
       </c>
       <c r="G26" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H26" s="16"/>
@@ -2220,39 +2165,39 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="16" t="n">
+      <c r="M26" s="16">
         <v>49</v>
       </c>
-      <c r="N26" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O26" s="16" t="n">
+      <c r="N26" s="16">
+        <v>55</v>
+      </c>
+      <c r="O26" s="16">
         <v>61</v>
       </c>
-      <c r="P26" s="16" t="n">
+      <c r="P26" s="16">
         <v>67</v>
       </c>
-      <c r="Q26" s="16" t="n">
+      <c r="Q26" s="16">
         <v>73</v>
       </c>
-      <c r="R26" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S26" s="16" t="n">
+      <c r="R26" s="16">
+        <v>81</v>
+      </c>
+      <c r="S26" s="16">
         <v>89</v>
       </c>
-      <c r="T26" s="16" t="n">
+      <c r="T26" s="16">
         <v>96</v>
       </c>
-      <c r="U26" s="16" t="n">
+      <c r="U26" s="16">
         <v>102</v>
       </c>
-      <c r="V26" s="16" t="n">
+      <c r="V26" s="16">
         <v>999</v>
       </c>
       <c r="W26" s="17"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2263,16 +2208,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E27" s="8">
         <v>15</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="8">
         <v>18</v>
       </c>
       <c r="G27" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H27" s="16"/>
@@ -2281,38 +2226,38 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O27" s="16" t="n">
+      <c r="N27" s="16">
+        <v>55</v>
+      </c>
+      <c r="O27" s="16">
         <v>61</v>
       </c>
-      <c r="P27" s="16" t="n">
+      <c r="P27" s="16">
         <v>67</v>
       </c>
-      <c r="Q27" s="16" t="n">
+      <c r="Q27" s="16">
         <v>73</v>
       </c>
-      <c r="R27" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S27" s="16" t="n">
+      <c r="R27" s="16">
+        <v>81</v>
+      </c>
+      <c r="S27" s="16">
         <v>89</v>
       </c>
-      <c r="T27" s="16" t="n">
+      <c r="T27" s="16">
         <v>96</v>
       </c>
-      <c r="U27" s="16" t="n">
+      <c r="U27" s="16">
         <v>102</v>
       </c>
-      <c r="V27" s="16" t="n">
+      <c r="V27" s="16">
         <v>109</v>
       </c>
-      <c r="W27" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W27" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>14</v>
       </c>
@@ -2323,16 +2268,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E28" s="8">
         <v>19</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="8">
         <v>20</v>
       </c>
       <c r="G28" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H28" s="16"/>
@@ -2341,38 +2286,38 @@
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O28" s="16" t="n">
+      <c r="N28" s="16">
+        <v>55</v>
+      </c>
+      <c r="O28" s="16">
         <v>61</v>
       </c>
-      <c r="P28" s="16" t="n">
+      <c r="P28" s="16">
         <v>67</v>
       </c>
-      <c r="Q28" s="16" t="n">
+      <c r="Q28" s="16">
         <v>73</v>
       </c>
-      <c r="R28" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S28" s="16" t="n">
+      <c r="R28" s="16">
+        <v>81</v>
+      </c>
+      <c r="S28" s="16">
         <v>89</v>
       </c>
-      <c r="T28" s="16" t="n">
+      <c r="T28" s="16">
         <v>96</v>
       </c>
-      <c r="U28" s="16" t="n">
+      <c r="U28" s="16">
         <v>102</v>
       </c>
-      <c r="V28" s="16" t="n">
+      <c r="V28" s="16">
         <v>109</v>
       </c>
-      <c r="W28" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W28" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -2383,16 +2328,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E29" s="8">
         <v>21</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="8">
         <v>99</v>
       </c>
       <c r="G29" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H29" s="16"/>
@@ -2401,40 +2346,40 @@
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O29" s="16" t="n">
+      <c r="N29" s="16">
+        <v>55</v>
+      </c>
+      <c r="O29" s="16">
         <v>61</v>
       </c>
-      <c r="P29" s="16" t="n">
+      <c r="P29" s="16">
         <v>67</v>
       </c>
-      <c r="Q29" s="16" t="n">
+      <c r="Q29" s="16">
         <v>73</v>
       </c>
-      <c r="R29" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S29" s="16" t="n">
+      <c r="R29" s="16">
+        <v>81</v>
+      </c>
+      <c r="S29" s="16">
         <v>89</v>
       </c>
-      <c r="T29" s="16" t="n">
+      <c r="T29" s="16">
         <v>96</v>
       </c>
-      <c r="U29" s="16" t="n">
+      <c r="U29" s="16">
         <v>102</v>
       </c>
-      <c r="V29" s="16" t="n">
+      <c r="V29" s="16">
         <v>109</v>
       </c>
-      <c r="W29" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>17</v>
@@ -2443,16 +2388,16 @@
         <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E30" s="8">
         <v>30</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="8">
         <v>34</v>
       </c>
       <c r="G30" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H30" s="16"/>
@@ -2461,40 +2406,40 @@
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O30" s="16" t="n">
+      <c r="N30" s="16">
+        <v>55</v>
+      </c>
+      <c r="O30" s="16">
         <v>61</v>
       </c>
-      <c r="P30" s="16" t="n">
+      <c r="P30" s="16">
         <v>67</v>
       </c>
-      <c r="Q30" s="16" t="n">
+      <c r="Q30" s="16">
         <v>73</v>
       </c>
-      <c r="R30" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S30" s="16" t="n">
+      <c r="R30" s="16">
+        <v>81</v>
+      </c>
+      <c r="S30" s="16">
         <v>89</v>
       </c>
-      <c r="T30" s="16" t="n">
+      <c r="T30" s="16">
         <v>96</v>
       </c>
-      <c r="U30" s="16" t="n">
+      <c r="U30" s="16">
         <v>102</v>
       </c>
-      <c r="V30" s="16" t="n">
+      <c r="V30" s="16">
         <v>109</v>
       </c>
-      <c r="W30" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W30" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>17</v>
@@ -2503,16 +2448,16 @@
         <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="E31" s="8">
+        <v>35</v>
+      </c>
+      <c r="F31" s="8">
         <v>39</v>
       </c>
       <c r="G31" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H31" s="16"/>
@@ -2521,43 +2466,43 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O31" s="16" t="n">
+      <c r="N31" s="16">
+        <v>55</v>
+      </c>
+      <c r="O31" s="16">
         <v>61</v>
       </c>
-      <c r="P31" s="16" t="n">
+      <c r="P31" s="16">
         <v>67</v>
       </c>
-      <c r="Q31" s="16" t="n">
+      <c r="Q31" s="16">
         <v>73</v>
       </c>
-      <c r="R31" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S31" s="16" t="n">
+      <c r="R31" s="16">
+        <v>81</v>
+      </c>
+      <c r="S31" s="16">
         <v>89</v>
       </c>
-      <c r="T31" s="16" t="n">
+      <c r="T31" s="16">
         <v>96</v>
       </c>
-      <c r="U31" s="16" t="n">
+      <c r="U31" s="16">
         <v>102</v>
       </c>
-      <c r="V31" s="16" t="n">
+      <c r="V31" s="16">
         <v>109</v>
       </c>
-      <c r="W31" s="16" t="n">
-        <v>999</v>
-      </c>
-      <c r="X31" s="18" t="s">
+      <c r="W31" s="16">
+        <v>999</v>
+      </c>
+      <c r="X31" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>17</v>
@@ -2566,16 +2511,16 @@
         <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E32" s="8">
         <v>40</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="8">
         <v>44</v>
       </c>
       <c r="G32" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="16"/>
@@ -2584,40 +2529,40 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O32" s="16" t="n">
+      <c r="N32" s="16">
+        <v>55</v>
+      </c>
+      <c r="O32" s="16">
         <v>61</v>
       </c>
-      <c r="P32" s="16" t="n">
+      <c r="P32" s="16">
         <v>67</v>
       </c>
-      <c r="Q32" s="16" t="n">
+      <c r="Q32" s="16">
         <v>73</v>
       </c>
-      <c r="R32" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S32" s="16" t="n">
+      <c r="R32" s="16">
+        <v>81</v>
+      </c>
+      <c r="S32" s="16">
         <v>89</v>
       </c>
-      <c r="T32" s="16" t="n">
+      <c r="T32" s="16">
         <v>96</v>
       </c>
-      <c r="U32" s="16" t="n">
+      <c r="U32" s="16">
         <v>102</v>
       </c>
-      <c r="V32" s="16" t="n">
+      <c r="V32" s="16">
         <v>109</v>
       </c>
-      <c r="W32" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W32" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>17</v>
@@ -2626,16 +2571,16 @@
         <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E33" s="8">
         <v>45</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="8">
         <v>49</v>
       </c>
       <c r="G33" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H33" s="16"/>
@@ -2644,40 +2589,40 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O33" s="16" t="n">
+      <c r="N33" s="16">
+        <v>55</v>
+      </c>
+      <c r="O33" s="16">
         <v>61</v>
       </c>
-      <c r="P33" s="16" t="n">
+      <c r="P33" s="16">
         <v>67</v>
       </c>
-      <c r="Q33" s="16" t="n">
+      <c r="Q33" s="16">
         <v>73</v>
       </c>
-      <c r="R33" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S33" s="16" t="n">
+      <c r="R33" s="16">
+        <v>81</v>
+      </c>
+      <c r="S33" s="16">
         <v>89</v>
       </c>
-      <c r="T33" s="16" t="n">
+      <c r="T33" s="16">
         <v>96</v>
       </c>
-      <c r="U33" s="16" t="n">
+      <c r="U33" s="16">
         <v>102</v>
       </c>
-      <c r="V33" s="16" t="n">
+      <c r="V33" s="16">
         <v>109</v>
       </c>
-      <c r="W33" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W33" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
@@ -2686,16 +2631,16 @@
         <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E34" s="8">
         <v>50</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="8">
         <v>54</v>
       </c>
       <c r="G34" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H34" s="16"/>
@@ -2704,40 +2649,40 @@
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O34" s="16" t="n">
+      <c r="N34" s="16">
+        <v>55</v>
+      </c>
+      <c r="O34" s="16">
         <v>61</v>
       </c>
-      <c r="P34" s="16" t="n">
+      <c r="P34" s="16">
         <v>67</v>
       </c>
-      <c r="Q34" s="16" t="n">
+      <c r="Q34" s="16">
         <v>73</v>
       </c>
-      <c r="R34" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S34" s="16" t="n">
+      <c r="R34" s="16">
+        <v>81</v>
+      </c>
+      <c r="S34" s="16">
         <v>89</v>
       </c>
-      <c r="T34" s="16" t="n">
+      <c r="T34" s="16">
         <v>96</v>
       </c>
-      <c r="U34" s="16" t="n">
+      <c r="U34" s="16">
         <v>102</v>
       </c>
-      <c r="V34" s="16" t="n">
+      <c r="V34" s="16">
         <v>109</v>
       </c>
-      <c r="W34" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W34" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>17</v>
@@ -2746,16 +2691,16 @@
         <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F35" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="8">
+        <v>55</v>
+      </c>
+      <c r="F35" s="8">
         <v>59</v>
       </c>
       <c r="G35" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H35" s="16"/>
@@ -2764,40 +2709,40 @@
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O35" s="16" t="n">
+      <c r="N35" s="16">
+        <v>55</v>
+      </c>
+      <c r="O35" s="16">
         <v>61</v>
       </c>
-      <c r="P35" s="16" t="n">
+      <c r="P35" s="16">
         <v>67</v>
       </c>
-      <c r="Q35" s="16" t="n">
+      <c r="Q35" s="16">
         <v>73</v>
       </c>
-      <c r="R35" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S35" s="16" t="n">
+      <c r="R35" s="16">
+        <v>81</v>
+      </c>
+      <c r="S35" s="16">
         <v>89</v>
       </c>
-      <c r="T35" s="16" t="n">
+      <c r="T35" s="16">
         <v>96</v>
       </c>
-      <c r="U35" s="16" t="n">
+      <c r="U35" s="16">
         <v>102</v>
       </c>
-      <c r="V35" s="16" t="n">
+      <c r="V35" s="16">
         <v>109</v>
       </c>
-      <c r="W35" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W35" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>17</v>
@@ -2806,16 +2751,16 @@
         <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" s="8">
         <v>60</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="8">
         <v>64</v>
       </c>
       <c r="G36" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="16"/>
@@ -2824,40 +2769,40 @@
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O36" s="16" t="n">
+      <c r="N36" s="16">
+        <v>55</v>
+      </c>
+      <c r="O36" s="16">
         <v>61</v>
       </c>
-      <c r="P36" s="16" t="n">
+      <c r="P36" s="16">
         <v>67</v>
       </c>
-      <c r="Q36" s="16" t="n">
+      <c r="Q36" s="16">
         <v>73</v>
       </c>
-      <c r="R36" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S36" s="16" t="n">
+      <c r="R36" s="16">
+        <v>81</v>
+      </c>
+      <c r="S36" s="16">
         <v>89</v>
       </c>
-      <c r="T36" s="16" t="n">
+      <c r="T36" s="16">
         <v>96</v>
       </c>
-      <c r="U36" s="16" t="n">
+      <c r="U36" s="16">
         <v>102</v>
       </c>
-      <c r="V36" s="16" t="n">
+      <c r="V36" s="16">
         <v>109</v>
       </c>
-      <c r="W36" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W36" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>17</v>
@@ -2866,16 +2811,16 @@
         <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8">
         <v>65</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="8">
         <v>69</v>
       </c>
       <c r="G37" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H37" s="16"/>
@@ -2884,40 +2829,40 @@
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O37" s="16" t="n">
+      <c r="N37" s="16">
+        <v>55</v>
+      </c>
+      <c r="O37" s="16">
         <v>61</v>
       </c>
-      <c r="P37" s="16" t="n">
+      <c r="P37" s="16">
         <v>67</v>
       </c>
-      <c r="Q37" s="16" t="n">
+      <c r="Q37" s="16">
         <v>73</v>
       </c>
-      <c r="R37" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S37" s="16" t="n">
+      <c r="R37" s="16">
+        <v>81</v>
+      </c>
+      <c r="S37" s="16">
         <v>89</v>
       </c>
-      <c r="T37" s="16" t="n">
+      <c r="T37" s="16">
         <v>96</v>
       </c>
-      <c r="U37" s="16" t="n">
+      <c r="U37" s="16">
         <v>102</v>
       </c>
-      <c r="V37" s="16" t="n">
+      <c r="V37" s="16">
         <v>109</v>
       </c>
-      <c r="W37" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W37" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>17</v>
@@ -2926,16 +2871,16 @@
         <v>17</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8">
         <v>70</v>
       </c>
-      <c r="F38" s="8" t="n">
+      <c r="F38" s="8">
         <v>74</v>
       </c>
       <c r="G38" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H38" s="16"/>
@@ -2944,40 +2889,40 @@
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O38" s="16" t="n">
+      <c r="N38" s="16">
+        <v>55</v>
+      </c>
+      <c r="O38" s="16">
         <v>61</v>
       </c>
-      <c r="P38" s="16" t="n">
+      <c r="P38" s="16">
         <v>67</v>
       </c>
-      <c r="Q38" s="16" t="n">
+      <c r="Q38" s="16">
         <v>73</v>
       </c>
-      <c r="R38" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S38" s="16" t="n">
+      <c r="R38" s="16">
+        <v>81</v>
+      </c>
+      <c r="S38" s="16">
         <v>89</v>
       </c>
-      <c r="T38" s="16" t="n">
+      <c r="T38" s="16">
         <v>96</v>
       </c>
-      <c r="U38" s="16" t="n">
+      <c r="U38" s="16">
         <v>102</v>
       </c>
-      <c r="V38" s="16" t="n">
+      <c r="V38" s="16">
         <v>109</v>
       </c>
-      <c r="W38" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W38" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>17</v>
@@ -2986,16 +2931,16 @@
         <v>17</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E39" s="8">
         <v>75</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39" s="8">
         <v>79</v>
       </c>
       <c r="G39" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H39" s="16"/>
@@ -3004,40 +2949,40 @@
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O39" s="16" t="n">
+      <c r="N39" s="16">
+        <v>55</v>
+      </c>
+      <c r="O39" s="16">
         <v>61</v>
       </c>
-      <c r="P39" s="16" t="n">
+      <c r="P39" s="16">
         <v>67</v>
       </c>
-      <c r="Q39" s="16" t="n">
+      <c r="Q39" s="16">
         <v>73</v>
       </c>
-      <c r="R39" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S39" s="16" t="n">
+      <c r="R39" s="16">
+        <v>81</v>
+      </c>
+      <c r="S39" s="16">
         <v>89</v>
       </c>
-      <c r="T39" s="16" t="n">
+      <c r="T39" s="16">
         <v>96</v>
       </c>
-      <c r="U39" s="16" t="n">
+      <c r="U39" s="16">
         <v>102</v>
       </c>
-      <c r="V39" s="16" t="n">
+      <c r="V39" s="16">
         <v>109</v>
       </c>
-      <c r="W39" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>17</v>
@@ -3046,16 +2991,16 @@
         <v>17</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8">
         <v>80</v>
       </c>
-      <c r="F40" s="8" t="n">
+      <c r="F40" s="8">
         <v>84</v>
       </c>
       <c r="G40" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H40" s="16"/>
@@ -3064,40 +3009,40 @@
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O40" s="16" t="n">
+      <c r="N40" s="16">
+        <v>55</v>
+      </c>
+      <c r="O40" s="16">
         <v>61</v>
       </c>
-      <c r="P40" s="16" t="n">
+      <c r="P40" s="16">
         <v>67</v>
       </c>
-      <c r="Q40" s="16" t="n">
+      <c r="Q40" s="16">
         <v>73</v>
       </c>
-      <c r="R40" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S40" s="16" t="n">
+      <c r="R40" s="16">
+        <v>81</v>
+      </c>
+      <c r="S40" s="16">
         <v>89</v>
       </c>
-      <c r="T40" s="16" t="n">
+      <c r="T40" s="16">
         <v>96</v>
       </c>
-      <c r="U40" s="16" t="n">
+      <c r="U40" s="16">
         <v>102</v>
       </c>
-      <c r="V40" s="16" t="n">
+      <c r="V40" s="16">
         <v>109</v>
       </c>
-      <c r="W40" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W40" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>17</v>
@@ -3106,16 +3051,16 @@
         <v>17</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E41" s="8">
         <v>85</v>
       </c>
-      <c r="F41" s="8" t="n">
+      <c r="F41" s="8">
         <v>999</v>
       </c>
       <c r="G41" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H41" s="16"/>
@@ -3123,39 +3068,39 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="16" t="n">
+      <c r="M41" s="16">
         <v>49</v>
       </c>
-      <c r="N41" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O41" s="16" t="n">
+      <c r="N41" s="16">
+        <v>55</v>
+      </c>
+      <c r="O41" s="16">
         <v>61</v>
       </c>
-      <c r="P41" s="16" t="n">
+      <c r="P41" s="16">
         <v>67</v>
       </c>
-      <c r="Q41" s="16" t="n">
+      <c r="Q41" s="16">
         <v>73</v>
       </c>
-      <c r="R41" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S41" s="16" t="n">
+      <c r="R41" s="16">
+        <v>81</v>
+      </c>
+      <c r="S41" s="16">
         <v>89</v>
       </c>
-      <c r="T41" s="16" t="n">
+      <c r="T41" s="16">
         <v>96</v>
       </c>
-      <c r="U41" s="16" t="n">
+      <c r="U41" s="16">
         <v>102</v>
       </c>
-      <c r="V41" s="16" t="n">
+      <c r="V41" s="16">
         <v>999</v>
       </c>
       <c r="W41" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -3163,19 +3108,19 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E42" s="8">
         <v>13</v>
       </c>
-      <c r="F42" s="8" t="n">
+      <c r="F42" s="8">
         <v>17</v>
       </c>
       <c r="G42" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H42" s="16"/>
@@ -3184,58 +3129,58 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O42" s="16" t="n">
+      <c r="N42" s="16">
+        <v>55</v>
+      </c>
+      <c r="O42" s="16">
         <v>61</v>
       </c>
-      <c r="P42" s="16" t="n">
+      <c r="P42" s="16">
         <v>67</v>
       </c>
-      <c r="Q42" s="16" t="n">
+      <c r="Q42" s="16">
         <v>73</v>
       </c>
-      <c r="R42" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S42" s="16" t="n">
+      <c r="R42" s="16">
+        <v>81</v>
+      </c>
+      <c r="S42" s="16">
         <v>89</v>
       </c>
-      <c r="T42" s="16" t="n">
+      <c r="T42" s="16">
         <v>96</v>
       </c>
-      <c r="U42" s="16" t="n">
+      <c r="U42" s="16">
         <v>102</v>
       </c>
-      <c r="V42" s="16" t="n">
+      <c r="V42" s="16">
         <v>109</v>
       </c>
-      <c r="W42" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W42" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E43" s="8">
         <v>15</v>
       </c>
-      <c r="F43" s="8" t="n">
+      <c r="F43" s="8">
         <v>20</v>
       </c>
       <c r="G43" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H43" s="16"/>
@@ -3244,38 +3189,38 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O43" s="16" t="n">
+      <c r="N43" s="16">
+        <v>55</v>
+      </c>
+      <c r="O43" s="16">
         <v>61</v>
       </c>
-      <c r="P43" s="16" t="n">
+      <c r="P43" s="16">
         <v>67</v>
       </c>
-      <c r="Q43" s="16" t="n">
+      <c r="Q43" s="16">
         <v>73</v>
       </c>
-      <c r="R43" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S43" s="16" t="n">
+      <c r="R43" s="16">
+        <v>81</v>
+      </c>
+      <c r="S43" s="16">
         <v>89</v>
       </c>
-      <c r="T43" s="16" t="n">
+      <c r="T43" s="16">
         <v>96</v>
       </c>
-      <c r="U43" s="16" t="n">
+      <c r="U43" s="16">
         <v>102</v>
       </c>
-      <c r="V43" s="16" t="n">
+      <c r="V43" s="16">
         <v>109</v>
       </c>
-      <c r="W43" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W43" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>15</v>
       </c>
@@ -3283,19 +3228,19 @@
         <v>15</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E44" s="8">
         <v>15</v>
       </c>
-      <c r="F44" s="8" t="n">
+      <c r="F44" s="8">
         <v>999</v>
       </c>
       <c r="G44" s="9" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H44" s="16"/>
@@ -3304,116 +3249,111 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O44" s="16" t="n">
+      <c r="N44" s="16">
+        <v>55</v>
+      </c>
+      <c r="O44" s="16">
         <v>61</v>
       </c>
-      <c r="P44" s="16" t="n">
+      <c r="P44" s="16">
         <v>67</v>
       </c>
-      <c r="Q44" s="16" t="n">
+      <c r="Q44" s="16">
         <v>73</v>
       </c>
-      <c r="R44" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S44" s="16" t="n">
+      <c r="R44" s="16">
+        <v>81</v>
+      </c>
+      <c r="S44" s="16">
         <v>89</v>
       </c>
-      <c r="T44" s="16" t="n">
+      <c r="T44" s="16">
         <v>96</v>
       </c>
-      <c r="U44" s="16" t="n">
+      <c r="U44" s="16">
         <v>102</v>
       </c>
-      <c r="V44" s="16" t="n">
+      <c r="V44" s="16">
         <v>109</v>
       </c>
-      <c r="W44" s="16" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W44" s="16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8" t="n">
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
         <v>999</v>
       </c>
       <c r="G45" s="14" t="b">
-        <f aca="false">TRUE()</f>
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H45" s="15" t="n">
+      <c r="H45" s="15">
         <v>33</v>
       </c>
-      <c r="I45" s="15" t="n">
+      <c r="I45" s="15">
         <v>35</v>
       </c>
-      <c r="J45" s="15" t="n">
+      <c r="J45" s="15">
         <v>37</v>
       </c>
-      <c r="K45" s="15" t="n">
+      <c r="K45" s="15">
         <v>41</v>
       </c>
-      <c r="L45" s="16" t="n">
+      <c r="L45" s="16">
         <v>45</v>
       </c>
-      <c r="M45" s="16" t="n">
+      <c r="M45" s="16">
         <v>49</v>
       </c>
-      <c r="N45" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="O45" s="16" t="n">
+      <c r="N45" s="16">
+        <v>55</v>
+      </c>
+      <c r="O45" s="16">
         <v>61</v>
       </c>
-      <c r="P45" s="16" t="n">
+      <c r="P45" s="16">
         <v>67</v>
       </c>
-      <c r="Q45" s="16" t="n">
+      <c r="Q45" s="16">
         <v>73</v>
       </c>
-      <c r="R45" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S45" s="16" t="n">
+      <c r="R45" s="16">
+        <v>81</v>
+      </c>
+      <c r="S45" s="16">
         <v>89</v>
       </c>
-      <c r="T45" s="16" t="n">
+      <c r="T45" s="16">
         <v>96</v>
       </c>
-      <c r="U45" s="16" t="n">
+      <c r="U45" s="16">
         <v>102</v>
       </c>
-      <c r="V45" s="16" t="n">
+      <c r="V45" s="16">
         <v>109</v>
       </c>
-      <c r="W45" s="16" t="n">
+      <c r="W45" s="16">
         <v>999</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/owlcms/src/main/resources/agegroups/RU-AgeGroups_ru.xlsx
+++ b/owlcms/src/main/resources/agegroups/RU-AgeGroups_ru.xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3311A41-6810-4CBD-A001-ABCF05520416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AgeGroups" sheetId="1" r:id="rId1"/>
+    <sheet name="AgeGroups" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,165 +20,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>championshipName</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>U20</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>F30</t>
-  </si>
-  <si>
-    <t>MASTERS</t>
-  </si>
-  <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>F40</t>
-  </si>
-  <si>
-    <t>F45</t>
-  </si>
-  <si>
-    <t>F50</t>
-  </si>
-  <si>
-    <t>F55</t>
-  </si>
-  <si>
-    <t>F60</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">championshipName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F60</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>F65</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F75</t>
-  </si>
-  <si>
-    <t>F80</t>
-  </si>
-  <si>
-    <t>F85</t>
-  </si>
-  <si>
-    <t>YOUTH</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>M30</t>
-  </si>
-  <si>
-    <t>M35</t>
-  </si>
-  <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>M45</t>
-  </si>
-  <si>
-    <t>M50</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
-    <t>M60</t>
-  </si>
-  <si>
-    <t>M65</t>
-  </si>
-  <si>
-    <t>M70</t>
-  </si>
-  <si>
-    <t>M75</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>M85</t>
+    <t xml:space="preserve">F65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -200,7 +209,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -208,14 +217,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -226,6 +236,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -252,7 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor rgb="FF8EA9DB"/>
       </patternFill>
     </fill>
@@ -288,7 +299,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -296,58 +307,117 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="19">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -406,78 +476,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -507,7 +561,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -531,7 +585,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -591,31 +645,32 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="8" max="23" width="14.42578125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="8" style="1" width="14.42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,7 +711,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -669,44 +724,44 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="n">
         <v>12</v>
       </c>
       <c r="G2" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P2" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="12">
+      <c r="P2" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="12" t="n">
         <v>999</v>
       </c>
       <c r="R2" s="11"/>
@@ -716,7 +771,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -729,14 +784,14 @@
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="8" t="n">
         <v>15</v>
       </c>
       <c r="G3" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="11"/>
@@ -744,39 +799,39 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="11">
+      <c r="M3" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P3" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="P3" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U3" s="11">
-        <v>81</v>
-      </c>
-      <c r="V3" s="11">
+      <c r="U3" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V3" s="11" t="n">
         <v>999</v>
       </c>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -789,14 +844,14 @@
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="8" t="n">
         <v>17</v>
       </c>
       <c r="G4" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
@@ -804,39 +859,39 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="11">
+      <c r="M4" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P4" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="P4" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U4" s="11">
-        <v>81</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="U4" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V4" s="11" t="n">
         <v>999</v>
       </c>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -849,14 +904,14 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="8" t="n">
         <v>18</v>
       </c>
       <c r="G5" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
@@ -865,38 +920,38 @@
       <c r="K5" s="11"/>
       <c r="L5" s="13"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11">
+      <c r="N5" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P5" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="P5" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U5" s="11">
-        <v>81</v>
-      </c>
-      <c r="V5" s="11">
+      <c r="U5" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V5" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W5" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -909,14 +964,14 @@
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="8" t="n">
         <v>20</v>
       </c>
       <c r="G6" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
@@ -925,38 +980,38 @@
       <c r="K6" s="11"/>
       <c r="L6" s="10"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="11">
+      <c r="N6" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P6" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="11">
+      <c r="P6" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U6" s="11">
-        <v>81</v>
-      </c>
-      <c r="V6" s="11">
+      <c r="U6" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V6" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W6" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -969,14 +1024,14 @@
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G7" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
@@ -984,41 +1039,41 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="11">
+      <c r="M7" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P7" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="P7" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U7" s="11">
-        <v>81</v>
-      </c>
-      <c r="V7" s="11">
+      <c r="U7" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V7" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W7" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1031,14 +1086,14 @@
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="8" t="n">
         <v>34</v>
       </c>
       <c r="G8" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
@@ -1046,41 +1101,41 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="11">
+      <c r="M8" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P8" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="P8" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U8" s="11">
-        <v>81</v>
-      </c>
-      <c r="V8" s="11">
+      <c r="U8" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V8" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W8" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1093,14 +1148,14 @@
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="8" t="n">
         <v>39</v>
       </c>
       <c r="G9" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
@@ -1108,41 +1163,41 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="11">
+      <c r="M9" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P9" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P9" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U9" s="11">
-        <v>81</v>
-      </c>
-      <c r="V9" s="11">
+      <c r="U9" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V9" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W9" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1155,14 +1210,14 @@
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="8" t="n">
         <v>44</v>
       </c>
       <c r="G10" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H10" s="11"/>
@@ -1170,41 +1225,41 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="11">
+      <c r="M10" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P10" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="P10" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U10" s="11">
-        <v>81</v>
-      </c>
-      <c r="V10" s="11">
+      <c r="U10" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V10" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W10" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1217,14 +1272,14 @@
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="8" t="n">
         <v>49</v>
       </c>
       <c r="G11" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H11" s="11"/>
@@ -1232,41 +1287,41 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="11">
+      <c r="M11" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P11" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="P11" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U11" s="11">
-        <v>81</v>
-      </c>
-      <c r="V11" s="11">
+      <c r="U11" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V11" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W11" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1279,14 +1334,14 @@
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="8" t="n">
         <v>54</v>
       </c>
       <c r="G12" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
@@ -1294,41 +1349,41 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="11">
+      <c r="M12" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P12" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="P12" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U12" s="11">
-        <v>81</v>
-      </c>
-      <c r="V12" s="11">
+      <c r="U12" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V12" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W12" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1341,14 +1396,14 @@
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8">
-        <v>55</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E13" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <v>59</v>
       </c>
       <c r="G13" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H13" s="11"/>
@@ -1356,41 +1411,41 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="11">
+      <c r="M13" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P13" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="11">
+      <c r="P13" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U13" s="11">
-        <v>81</v>
-      </c>
-      <c r="V13" s="11">
+      <c r="U13" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V13" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W13" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1403,14 +1458,14 @@
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="8" t="n">
         <v>64</v>
       </c>
       <c r="G14" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H14" s="11"/>
@@ -1418,44 +1473,44 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="11">
+      <c r="M14" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P14" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="P14" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U14" s="11">
-        <v>81</v>
-      </c>
-      <c r="V14" s="11">
+      <c r="U14" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V14" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W14" s="11">
-        <v>999</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="W14" s="11" t="n">
+        <v>999</v>
+      </c>
+      <c r="X14" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1468,14 +1523,14 @@
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="8" t="n">
         <v>69</v>
       </c>
       <c r="G15" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H15" s="11"/>
@@ -1483,41 +1538,41 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="11">
+      <c r="M15" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P15" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="P15" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U15" s="11">
-        <v>81</v>
-      </c>
-      <c r="V15" s="11">
+      <c r="U15" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V15" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W15" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1530,14 +1585,14 @@
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="8" t="n">
         <v>74</v>
       </c>
       <c r="G16" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H16" s="11"/>
@@ -1545,41 +1600,41 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="11">
+      <c r="M16" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P16" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="P16" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U16" s="11">
-        <v>81</v>
-      </c>
-      <c r="V16" s="11">
+      <c r="U16" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V16" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W16" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1592,14 +1647,14 @@
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="8" t="n">
         <v>79</v>
       </c>
       <c r="G17" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H17" s="11"/>
@@ -1607,41 +1662,41 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="11">
+      <c r="M17" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P17" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="P17" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U17" s="11">
-        <v>81</v>
-      </c>
-      <c r="V17" s="11">
+      <c r="U17" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V17" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W17" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1654,14 +1709,14 @@
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G18" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H18" s="11"/>
@@ -1669,41 +1724,41 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="11">
+      <c r="M18" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P18" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q18" s="11">
+      <c r="P18" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U18" s="11">
-        <v>81</v>
-      </c>
-      <c r="V18" s="11">
+      <c r="U18" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V18" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W18" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1716,14 +1771,14 @@
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G19" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H19" s="11"/>
@@ -1731,41 +1786,41 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="11">
+      <c r="M19" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P19" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="11">
+      <c r="P19" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U19" s="11">
-        <v>81</v>
-      </c>
-      <c r="V19" s="11">
+      <c r="U19" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V19" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W19" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1773,19 +1828,19 @@
         <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="8" t="n">
         <v>17</v>
       </c>
       <c r="G20" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
@@ -1793,59 +1848,59 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="11">
+      <c r="M20" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P20" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="11">
+      <c r="P20" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U20" s="11">
-        <v>81</v>
-      </c>
-      <c r="V20" s="11">
+      <c r="U20" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V20" s="11" t="n">
         <v>999</v>
       </c>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="8" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H21" s="11"/>
@@ -1854,38 +1909,38 @@
       <c r="K21" s="11"/>
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="11">
+      <c r="N21" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P21" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="11">
+      <c r="P21" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U21" s="11">
-        <v>81</v>
-      </c>
-      <c r="V21" s="11">
+      <c r="U21" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V21" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W21" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -1893,19 +1948,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G22" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H22" s="11"/>
@@ -1914,110 +1969,110 @@
       <c r="K22" s="11"/>
       <c r="L22" s="10"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="11">
+      <c r="N22" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P22" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="11">
+      <c r="P22" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U22" s="11">
-        <v>81</v>
-      </c>
-      <c r="V22" s="11">
+      <c r="U22" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V22" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W22" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="W22" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G23" s="14" t="b">
-        <f>TRUE()</f>
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="P23" s="11">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="11">
+      <c r="P23" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="U23" s="11">
-        <v>81</v>
-      </c>
-      <c r="V23" s="11">
+      <c r="U23" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V23" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="W23" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="W23" s="11" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -2028,46 +2083,46 @@
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" s="9" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="I24" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>12</v>
-      </c>
-      <c r="G24" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>33</v>
-      </c>
-      <c r="I24" s="15">
-        <v>35</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="J24" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="N24" s="16">
-        <v>55</v>
-      </c>
-      <c r="O24" s="16">
+      <c r="N24" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O24" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="15" t="n">
         <v>999</v>
       </c>
       <c r="R24" s="16"/>
@@ -2077,7 +2132,7 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -2088,16 +2143,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="8">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="8" t="n">
         <v>15</v>
       </c>
       <c r="G25" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H25" s="16"/>
@@ -2105,39 +2160,39 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="16">
+      <c r="M25" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="N25" s="16">
-        <v>55</v>
-      </c>
-      <c r="O25" s="16">
+      <c r="N25" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O25" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R25" s="16">
-        <v>81</v>
-      </c>
-      <c r="S25" s="16">
+      <c r="R25" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S25" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U25" s="16">
+      <c r="U25" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="16" t="n">
         <v>999</v>
       </c>
       <c r="W25" s="16"/>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -2148,16 +2203,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="8">
+        <v>36</v>
+      </c>
+      <c r="E26" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="8" t="n">
         <v>17</v>
       </c>
       <c r="G26" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H26" s="16"/>
@@ -2165,39 +2220,39 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="16">
+      <c r="M26" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="N26" s="16">
-        <v>55</v>
-      </c>
-      <c r="O26" s="16">
+      <c r="N26" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O26" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R26" s="16">
-        <v>81</v>
-      </c>
-      <c r="S26" s="16">
+      <c r="R26" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S26" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U26" s="16">
+      <c r="U26" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V26" s="16">
+      <c r="V26" s="16" t="n">
         <v>999</v>
       </c>
       <c r="W26" s="17"/>
     </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2208,16 +2263,16 @@
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="8">
+        <v>36</v>
+      </c>
+      <c r="E27" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="8" t="n">
         <v>18</v>
       </c>
       <c r="G27" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H27" s="16"/>
@@ -2226,38 +2281,38 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="16">
-        <v>55</v>
-      </c>
-      <c r="O27" s="16">
+      <c r="N27" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O27" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R27" s="16">
-        <v>81</v>
-      </c>
-      <c r="S27" s="16">
+      <c r="R27" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S27" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U27" s="16">
+      <c r="U27" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V27" s="16">
+      <c r="V27" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W27" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="W27" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>14</v>
       </c>
@@ -2268,16 +2323,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="8">
+        <v>36</v>
+      </c>
+      <c r="E28" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="8" t="n">
         <v>20</v>
       </c>
       <c r="G28" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H28" s="16"/>
@@ -2286,38 +2341,38 @@
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="16">
-        <v>55</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O28" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R28" s="16">
-        <v>81</v>
-      </c>
-      <c r="S28" s="16">
+      <c r="R28" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S28" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U28" s="16">
+      <c r="U28" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W28" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="W28" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -2328,16 +2383,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="8">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="8" t="n">
         <v>99</v>
       </c>
       <c r="G29" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H29" s="16"/>
@@ -2346,58 +2401,58 @@
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="16">
-        <v>55</v>
-      </c>
-      <c r="O29" s="16">
+      <c r="N29" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O29" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R29" s="16">
-        <v>81</v>
-      </c>
-      <c r="S29" s="16">
+      <c r="R29" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S29" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U29" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W29" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="W29" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="E30" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="8" t="n">
         <v>34</v>
       </c>
       <c r="G30" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H30" s="16"/>
@@ -2406,40 +2461,40 @@
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="16">
-        <v>55</v>
-      </c>
-      <c r="O30" s="16">
+      <c r="N30" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O30" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R30" s="16">
-        <v>81</v>
-      </c>
-      <c r="S30" s="16">
+      <c r="R30" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S30" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W30" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="W30" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>17</v>
@@ -2448,16 +2503,16 @@
         <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="E31" s="8">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="F31" s="8" t="n">
         <v>39</v>
       </c>
       <c r="G31" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H31" s="16"/>
@@ -2466,43 +2521,43 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="16">
-        <v>55</v>
-      </c>
-      <c r="O31" s="16">
+      <c r="N31" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O31" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R31" s="16">
-        <v>81</v>
-      </c>
-      <c r="S31" s="16">
+      <c r="R31" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S31" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U31" s="16">
+      <c r="U31" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W31" s="16">
-        <v>999</v>
-      </c>
-      <c r="X31" s="9" t="s">
+      <c r="W31" s="16" t="n">
+        <v>999</v>
+      </c>
+      <c r="X31" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>17</v>
@@ -2511,16 +2566,16 @@
         <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="8">
+        <v>36</v>
+      </c>
+      <c r="E32" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="8" t="n">
         <v>44</v>
       </c>
       <c r="G32" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="16"/>
@@ -2529,40 +2584,40 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="16">
-        <v>55</v>
-      </c>
-      <c r="O32" s="16">
+      <c r="N32" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O32" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R32" s="16">
-        <v>81</v>
-      </c>
-      <c r="S32" s="16">
+      <c r="R32" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S32" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U32" s="16">
+      <c r="U32" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W32" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W32" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>17</v>
@@ -2571,16 +2626,16 @@
         <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="8">
+        <v>36</v>
+      </c>
+      <c r="E33" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="8" t="n">
         <v>49</v>
       </c>
       <c r="G33" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H33" s="16"/>
@@ -2589,40 +2644,40 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="16">
-        <v>55</v>
-      </c>
-      <c r="O33" s="16">
+      <c r="N33" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O33" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R33" s="16">
-        <v>81</v>
-      </c>
-      <c r="S33" s="16">
+      <c r="R33" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S33" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U33" s="16">
+      <c r="U33" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V33" s="16">
+      <c r="V33" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W33" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W33" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
@@ -2631,16 +2686,16 @@
         <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="8">
+        <v>36</v>
+      </c>
+      <c r="E34" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="8" t="n">
         <v>54</v>
       </c>
       <c r="G34" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H34" s="16"/>
@@ -2649,40 +2704,40 @@
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="16">
-        <v>55</v>
-      </c>
-      <c r="O34" s="16">
+      <c r="N34" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O34" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R34" s="16">
-        <v>81</v>
-      </c>
-      <c r="S34" s="16">
+      <c r="R34" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S34" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U34" s="16">
+      <c r="U34" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W34" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W34" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>17</v>
@@ -2691,16 +2746,16 @@
         <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="8">
-        <v>55</v>
-      </c>
-      <c r="F35" s="8">
+        <v>36</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="F35" s="8" t="n">
         <v>59</v>
       </c>
       <c r="G35" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H35" s="16"/>
@@ -2709,40 +2764,40 @@
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="16">
-        <v>55</v>
-      </c>
-      <c r="O35" s="16">
+      <c r="N35" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O35" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R35" s="16">
-        <v>81</v>
-      </c>
-      <c r="S35" s="16">
+      <c r="R35" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S35" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U35" s="16">
+      <c r="U35" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W35" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W35" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>17</v>
@@ -2751,16 +2806,16 @@
         <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="8">
+        <v>36</v>
+      </c>
+      <c r="E36" s="8" t="n">
         <v>60</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="8" t="n">
         <v>64</v>
       </c>
       <c r="G36" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="16"/>
@@ -2769,40 +2824,40 @@
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="16">
-        <v>55</v>
-      </c>
-      <c r="O36" s="16">
+      <c r="N36" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O36" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R36" s="16">
-        <v>81</v>
-      </c>
-      <c r="S36" s="16">
+      <c r="R36" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S36" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U36" s="16">
+      <c r="U36" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W36" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W36" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>17</v>
@@ -2811,16 +2866,16 @@
         <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="8">
+        <v>36</v>
+      </c>
+      <c r="E37" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="8" t="n">
         <v>69</v>
       </c>
       <c r="G37" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H37" s="16"/>
@@ -2829,40 +2884,40 @@
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="16">
-        <v>55</v>
-      </c>
-      <c r="O37" s="16">
+      <c r="N37" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O37" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R37" s="16">
-        <v>81</v>
-      </c>
-      <c r="S37" s="16">
+      <c r="R37" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S37" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T37" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U37" s="16">
+      <c r="U37" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V37" s="16">
+      <c r="V37" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W37" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W37" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>17</v>
@@ -2871,16 +2926,16 @@
         <v>17</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="8">
+        <v>36</v>
+      </c>
+      <c r="E38" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="8" t="n">
         <v>74</v>
       </c>
       <c r="G38" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H38" s="16"/>
@@ -2889,40 +2944,40 @@
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="16">
-        <v>55</v>
-      </c>
-      <c r="O38" s="16">
+      <c r="N38" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O38" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R38" s="16">
-        <v>81</v>
-      </c>
-      <c r="S38" s="16">
+      <c r="R38" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S38" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T38" s="16">
+      <c r="T38" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U38" s="16">
+      <c r="U38" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W38" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W38" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>17</v>
@@ -2931,16 +2986,16 @@
         <v>17</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="8">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="8" t="n">
         <v>79</v>
       </c>
       <c r="G39" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H39" s="16"/>
@@ -2949,40 +3004,40 @@
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="16">
-        <v>55</v>
-      </c>
-      <c r="O39" s="16">
+      <c r="N39" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O39" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R39" s="16">
-        <v>81</v>
-      </c>
-      <c r="S39" s="16">
+      <c r="R39" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S39" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T39" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U39" s="16">
+      <c r="U39" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V39" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W39" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W39" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>17</v>
@@ -2991,16 +3046,16 @@
         <v>17</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="8">
+        <v>36</v>
+      </c>
+      <c r="E40" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="8" t="n">
         <v>84</v>
       </c>
       <c r="G40" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H40" s="16"/>
@@ -3009,40 +3064,40 @@
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="16">
-        <v>55</v>
-      </c>
-      <c r="O40" s="16">
+      <c r="N40" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O40" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q40" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R40" s="16">
-        <v>81</v>
-      </c>
-      <c r="S40" s="16">
+      <c r="R40" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S40" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T40" s="16">
+      <c r="T40" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U40" s="16">
+      <c r="U40" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W40" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W40" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>17</v>
@@ -3051,16 +3106,16 @@
         <v>17</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="8">
+        <v>36</v>
+      </c>
+      <c r="E41" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G41" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H41" s="16"/>
@@ -3068,39 +3123,39 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="16">
+      <c r="M41" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="N41" s="16">
-        <v>55</v>
-      </c>
-      <c r="O41" s="16">
+      <c r="N41" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O41" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R41" s="16">
-        <v>81</v>
-      </c>
-      <c r="S41" s="16">
+      <c r="R41" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S41" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T41" s="16">
+      <c r="T41" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U41" s="16">
+      <c r="U41" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="16" t="n">
         <v>999</v>
       </c>
       <c r="W41" s="16"/>
     </row>
-    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -3108,19 +3163,19 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="8">
+        <v>36</v>
+      </c>
+      <c r="E42" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="8" t="n">
         <v>17</v>
       </c>
       <c r="G42" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H42" s="16"/>
@@ -3129,58 +3184,58 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="16">
-        <v>55</v>
-      </c>
-      <c r="O42" s="16">
+      <c r="N42" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O42" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R42" s="16">
-        <v>81</v>
-      </c>
-      <c r="S42" s="16">
+      <c r="R42" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S42" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U42" s="16">
+      <c r="U42" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W42" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W42" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="8">
+        <v>36</v>
+      </c>
+      <c r="E43" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="8" t="n">
         <v>20</v>
       </c>
       <c r="G43" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H43" s="16"/>
@@ -3189,38 +3244,38 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="16">
-        <v>55</v>
-      </c>
-      <c r="O43" s="16">
+      <c r="N43" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O43" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R43" s="16">
-        <v>81</v>
-      </c>
-      <c r="S43" s="16">
+      <c r="R43" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S43" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T43" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U43" s="16">
+      <c r="U43" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W43" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="W43" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>15</v>
       </c>
@@ -3228,19 +3283,19 @@
         <v>15</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="8">
+        <v>36</v>
+      </c>
+      <c r="E44" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="8" t="n">
         <v>999</v>
       </c>
       <c r="G44" s="9" t="b">
-        <f>FALSE()</f>
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H44" s="16"/>
@@ -3249,111 +3304,116 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="16">
-        <v>55</v>
-      </c>
-      <c r="O44" s="16">
+      <c r="N44" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O44" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q44" s="16">
+      <c r="Q44" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R44" s="16">
-        <v>81</v>
-      </c>
-      <c r="S44" s="16">
+      <c r="R44" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S44" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T44" s="16">
+      <c r="T44" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U44" s="16">
+      <c r="U44" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W44" s="16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="16" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>999</v>
+      </c>
+      <c r="G45" s="14" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="I45" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>999</v>
-      </c>
-      <c r="G45" s="14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="15">
-        <v>33</v>
-      </c>
-      <c r="I45" s="15">
-        <v>35</v>
-      </c>
-      <c r="J45" s="15">
+      <c r="J45" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="N45" s="16">
-        <v>55</v>
-      </c>
-      <c r="O45" s="16">
+      <c r="N45" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O45" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="R45" s="16">
-        <v>81</v>
-      </c>
-      <c r="S45" s="16">
+      <c r="R45" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="S45" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="T45" s="16">
+      <c r="T45" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="U45" s="16">
+      <c r="U45" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V45" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="W45" s="16">
+      <c r="W45" s="16" t="n">
         <v>999</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>